--- a/level-2/leetcode-phase-2-1/leetcode-phase-2-1.xlsx
+++ b/level-2/leetcode-phase-2-1/leetcode-phase-2-1.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8EBB454-F155-4DD0-B07F-427359FA7649}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD20D31-8489-4626-B45A-23DA51BD2D99}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="713" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="685" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="610" uniqueCount="218">
   <si>
     <t>Problem Link</t>
   </si>
@@ -68,9 +68,6 @@
     <t>hard</t>
   </si>
   <si>
-    <t>Sliding Window</t>
-  </si>
-  <si>
     <t>Dequeue</t>
   </si>
   <si>
@@ -654,81 +651,6 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/max-sum-of-rectangle-no-larger-than-k/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/diet-plan-performance/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/find-k-length-substrings-with-no-repeated-characters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-consecutive-ones-iii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-swaps-to-group-all-1s-together/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/grumpy-bookstore-owner/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-number-of-vowels-in-a-substring-of-given-length/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/moving-stones-until-consecutive-ii/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-substring-with-at-most-two-distinct-characters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-repeating-character-replacement/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/maximum-points-you-can-obtain-from-cards/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-turbulent-subarray/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-substring-with-at-most-k-distinct-characters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/permutation-in-string/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-continuous-subarray-with-absolute-diff-less-than-or-equal-to-limit/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/get-equal-substrings-within-budget/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-subsequences-that-satisfy-the-given-sum-condition/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-operations-to-reduce-x-to-zero/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/longest-substring-without-repeating-characters/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/number-of-submatrices-that-sum-to-target/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/subarrays-with-k-different-integers/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-number-of-k-consecutive-bit-flips/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/max-value-of-equation/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-window-subsequence/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/sliding-window-median/</t>
-  </si>
-  <si>
-    <t>https://leetcode.com/problems/minimum-window-substring/</t>
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-subarray-min-product/</t>
@@ -1451,7 +1373,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J233"/>
+  <dimension ref="A1:J208"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1518,36 +1440,36 @@
       <c r="A3" s="19"/>
       <c r="B3" s="15"/>
       <c r="C3" s="7" t="e">
-        <f t="shared" ref="C3:H3" si="0">AVERAGE(C4:C176)</f>
+        <f>AVERAGE(C4:C176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="D3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D4:D176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="E3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(E4:E176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="F3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(F4:F176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G3" s="7" t="e">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(G4:G176)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H4:H176)</f>
         <v>0</v>
       </c>
       <c r="I3" s="6">
-        <f>COUNTA(I4:I880)</f>
+        <f>COUNTA(I4:I855)</f>
         <v>0</v>
       </c>
       <c r="J3" s="6">
-        <f>COUNTA(J4:J1000)</f>
-        <v>225</v>
+        <f>COUNTA(J4:J975)</f>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1568,7 +1490,7 @@
       </c>
       <c r="I4" s="3"/>
       <c r="J4" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1588,7 +1510,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1609,7 +1531,7 @@
       </c>
       <c r="I6" s="3"/>
       <c r="J6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1630,7 +1552,7 @@
       </c>
       <c r="I7" s="3"/>
       <c r="J7" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1646,12 +1568,12 @@
       <c r="F8" s="9"/>
       <c r="G8" s="9"/>
       <c r="H8" s="8">
-        <f t="shared" ref="H8:H71" si="1">SUM(C8:G8)</f>
+        <f>SUM(C8:G8)</f>
         <v>0</v>
       </c>
       <c r="I8" s="3"/>
       <c r="J8" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,12 +1589,12 @@
       <c r="F9" s="9"/>
       <c r="G9" s="9"/>
       <c r="H9" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C9:G9)</f>
         <v>0</v>
       </c>
       <c r="I9" s="3"/>
       <c r="J9" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1688,12 +1610,12 @@
       <c r="F10" s="9"/>
       <c r="G10" s="9"/>
       <c r="H10" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C10:G10)</f>
         <v>0</v>
       </c>
       <c r="I10" s="3"/>
       <c r="J10" s="12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1709,12 +1631,12 @@
       <c r="F11" s="9"/>
       <c r="G11" s="9"/>
       <c r="H11" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C11:G11)</f>
         <v>0</v>
       </c>
       <c r="I11" s="3"/>
       <c r="J11" s="12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1730,12 +1652,12 @@
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
       <c r="H12" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C12:G12)</f>
         <v>0</v>
       </c>
       <c r="I12" s="3"/>
       <c r="J12" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1751,12 +1673,12 @@
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
       <c r="H13" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C13:G13)</f>
         <v>0</v>
       </c>
       <c r="I13" s="3"/>
       <c r="J13" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1772,12 +1694,12 @@
       <c r="F14" s="9"/>
       <c r="G14" s="9"/>
       <c r="H14" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C14:G14)</f>
         <v>0</v>
       </c>
       <c r="I14" s="3"/>
       <c r="J14" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1793,12 +1715,12 @@
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
       <c r="H15" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C15:G15)</f>
         <v>0</v>
       </c>
       <c r="I15" s="3"/>
       <c r="J15" s="12" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1814,12 +1736,12 @@
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
       <c r="H16" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C16:G16)</f>
         <v>0</v>
       </c>
       <c r="I16" s="3"/>
       <c r="J16" s="12" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1835,12 +1757,12 @@
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
       <c r="H17" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C17:G17)</f>
         <v>0</v>
       </c>
       <c r="I17" s="3"/>
       <c r="J17" s="12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1856,12 +1778,12 @@
       <c r="F18" s="10"/>
       <c r="G18" s="10"/>
       <c r="H18" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C18:G18)</f>
         <v>0</v>
       </c>
       <c r="I18" s="3"/>
       <c r="J18" s="12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1877,12 +1799,12 @@
       <c r="F19" s="9"/>
       <c r="G19" s="9"/>
       <c r="H19" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C19:G19)</f>
         <v>0</v>
       </c>
       <c r="I19" s="3"/>
       <c r="J19" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1898,12 +1820,12 @@
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
       <c r="H20" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C20:G20)</f>
         <v>0</v>
       </c>
       <c r="I20" s="3"/>
       <c r="J20" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1919,12 +1841,12 @@
       <c r="F21" s="10"/>
       <c r="G21" s="10"/>
       <c r="H21" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C21:G21)</f>
         <v>0</v>
       </c>
       <c r="I21" s="3"/>
       <c r="J21" s="12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1940,12 +1862,12 @@
       <c r="F22" s="9"/>
       <c r="G22" s="9"/>
       <c r="H22" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C22:G22)</f>
         <v>0</v>
       </c>
       <c r="I22" s="3"/>
       <c r="J22" s="12" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1961,12 +1883,12 @@
       <c r="F23" s="9"/>
       <c r="G23" s="9"/>
       <c r="H23" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C23:G23)</f>
         <v>0</v>
       </c>
       <c r="I23" s="3"/>
       <c r="J23" s="12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -1982,12 +1904,12 @@
       <c r="F24" s="9"/>
       <c r="G24" s="9"/>
       <c r="H24" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C24:G24)</f>
         <v>0</v>
       </c>
       <c r="I24" s="3"/>
       <c r="J24" s="12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2003,12 +1925,12 @@
       <c r="F25" s="9"/>
       <c r="G25" s="9"/>
       <c r="H25" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C25:G25)</f>
         <v>0</v>
       </c>
       <c r="I25" s="3"/>
       <c r="J25" s="12" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2024,12 +1946,12 @@
       <c r="F26" s="9"/>
       <c r="G26" s="9"/>
       <c r="H26" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C26:G26)</f>
         <v>0</v>
       </c>
       <c r="I26" s="3"/>
       <c r="J26" s="12" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2045,12 +1967,12 @@
       <c r="F27" s="9"/>
       <c r="G27" s="9"/>
       <c r="H27" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C27:G27)</f>
         <v>0</v>
       </c>
       <c r="I27" s="3"/>
       <c r="J27" s="12" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2066,12 +1988,12 @@
       <c r="F28" s="9"/>
       <c r="G28" s="9"/>
       <c r="H28" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C28:G28)</f>
         <v>0</v>
       </c>
       <c r="I28" s="3"/>
       <c r="J28" s="12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2087,12 +2009,12 @@
       <c r="F29" s="9"/>
       <c r="G29" s="9"/>
       <c r="H29" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C29:G29)</f>
         <v>0</v>
       </c>
       <c r="I29" s="3"/>
       <c r="J29" s="12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2108,12 +2030,12 @@
       <c r="F30" s="10"/>
       <c r="G30" s="10"/>
       <c r="H30" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C30:G30)</f>
         <v>0</v>
       </c>
       <c r="I30" s="3"/>
       <c r="J30" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2129,12 +2051,12 @@
       <c r="F31" s="10"/>
       <c r="G31" s="10"/>
       <c r="H31" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C31:G31)</f>
         <v>0</v>
       </c>
       <c r="I31" s="3"/>
       <c r="J31" s="12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2150,12 +2072,12 @@
       <c r="F32" s="9"/>
       <c r="G32" s="9"/>
       <c r="H32" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C32:G32)</f>
         <v>0</v>
       </c>
       <c r="I32" s="3"/>
       <c r="J32" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2171,12 +2093,12 @@
       <c r="F33" s="9"/>
       <c r="G33" s="9"/>
       <c r="H33" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C33:G33)</f>
         <v>0</v>
       </c>
       <c r="I33" s="3"/>
       <c r="J33" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2192,12 +2114,12 @@
       <c r="F34" s="10"/>
       <c r="G34" s="10"/>
       <c r="H34" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C34:G34)</f>
         <v>0</v>
       </c>
       <c r="I34" s="3"/>
       <c r="J34" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2213,12 +2135,12 @@
       <c r="F35" s="10"/>
       <c r="G35" s="10"/>
       <c r="H35" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C35:G35)</f>
         <v>0</v>
       </c>
       <c r="I35" s="3"/>
       <c r="J35" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2234,12 +2156,12 @@
       <c r="F36" s="9"/>
       <c r="G36" s="9"/>
       <c r="H36" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C36:G36)</f>
         <v>0</v>
       </c>
       <c r="I36" s="3"/>
       <c r="J36" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2255,12 +2177,12 @@
       <c r="F37" s="10"/>
       <c r="G37" s="10"/>
       <c r="H37" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C37:G37)</f>
         <v>0</v>
       </c>
       <c r="I37" s="3"/>
       <c r="J37" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2276,12 +2198,12 @@
       <c r="F38" s="9"/>
       <c r="G38" s="9"/>
       <c r="H38" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C38:G38)</f>
         <v>0</v>
       </c>
       <c r="I38" s="3"/>
       <c r="J38" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2297,12 +2219,12 @@
       <c r="F39" s="10"/>
       <c r="G39" s="10"/>
       <c r="H39" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C39:G39)</f>
         <v>0</v>
       </c>
       <c r="I39" s="3"/>
       <c r="J39" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2318,12 +2240,12 @@
       <c r="F40" s="9"/>
       <c r="G40" s="9"/>
       <c r="H40" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C40:G40)</f>
         <v>0</v>
       </c>
       <c r="I40" s="3"/>
       <c r="J40" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2339,12 +2261,12 @@
       <c r="F41" s="9"/>
       <c r="G41" s="9"/>
       <c r="H41" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C41:G41)</f>
         <v>0</v>
       </c>
       <c r="I41" s="3"/>
       <c r="J41" s="12" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2360,12 +2282,12 @@
       <c r="F42" s="9"/>
       <c r="G42" s="9"/>
       <c r="H42" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C42:G42)</f>
         <v>0</v>
       </c>
       <c r="I42" s="3"/>
       <c r="J42" s="12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2381,12 +2303,12 @@
       <c r="F43" s="9"/>
       <c r="G43" s="9"/>
       <c r="H43" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C43:G43)</f>
         <v>0</v>
       </c>
       <c r="I43" s="3"/>
       <c r="J43" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2402,12 +2324,12 @@
       <c r="F44" s="10"/>
       <c r="G44" s="10"/>
       <c r="H44" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C44:G44)</f>
         <v>0</v>
       </c>
       <c r="I44" s="3"/>
       <c r="J44" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2423,12 +2345,12 @@
       <c r="F45" s="10"/>
       <c r="G45" s="10"/>
       <c r="H45" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C45:G45)</f>
         <v>0</v>
       </c>
       <c r="I45" s="3"/>
       <c r="J45" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2444,12 +2366,12 @@
       <c r="F46" s="10"/>
       <c r="G46" s="10"/>
       <c r="H46" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C46:G46)</f>
         <v>0</v>
       </c>
       <c r="I46" s="3"/>
       <c r="J46" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2465,12 +2387,12 @@
       <c r="F47" s="10"/>
       <c r="G47" s="10"/>
       <c r="H47" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C47:G47)</f>
         <v>0</v>
       </c>
       <c r="I47" s="3"/>
       <c r="J47" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2486,12 +2408,12 @@
       <c r="F48" s="9"/>
       <c r="G48" s="9"/>
       <c r="H48" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C48:G48)</f>
         <v>0</v>
       </c>
       <c r="I48" s="3"/>
       <c r="J48" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2507,12 +2429,12 @@
       <c r="F49" s="10"/>
       <c r="G49" s="10"/>
       <c r="H49" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C49:G49)</f>
         <v>0</v>
       </c>
       <c r="I49" s="3"/>
       <c r="J49" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2528,12 +2450,12 @@
       <c r="F50" s="9"/>
       <c r="G50" s="9"/>
       <c r="H50" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C50:G50)</f>
         <v>0</v>
       </c>
       <c r="I50" s="3"/>
       <c r="J50" s="12" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2549,12 +2471,12 @@
       <c r="F51" s="9"/>
       <c r="G51" s="9"/>
       <c r="H51" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C51:G51)</f>
         <v>0</v>
       </c>
       <c r="I51" s="3"/>
       <c r="J51" s="12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2570,12 +2492,12 @@
       <c r="F52" s="9"/>
       <c r="G52" s="9"/>
       <c r="H52" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C52:G52)</f>
         <v>0</v>
       </c>
       <c r="I52" s="3"/>
       <c r="J52" s="12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2591,12 +2513,12 @@
       <c r="F53" s="9"/>
       <c r="G53" s="9"/>
       <c r="H53" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C53:G53)</f>
         <v>0</v>
       </c>
       <c r="I53" s="3"/>
       <c r="J53" s="12" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2612,12 +2534,12 @@
       <c r="F54" s="10"/>
       <c r="G54" s="10"/>
       <c r="H54" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C54:G54)</f>
         <v>0</v>
       </c>
       <c r="I54" s="3"/>
       <c r="J54" s="12" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2633,12 +2555,12 @@
       <c r="F55" s="10"/>
       <c r="G55" s="10"/>
       <c r="H55" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C55:G55)</f>
         <v>0</v>
       </c>
       <c r="I55" s="3"/>
       <c r="J55" s="12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2654,12 +2576,12 @@
       <c r="F56" s="10"/>
       <c r="G56" s="10"/>
       <c r="H56" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C56:G56)</f>
         <v>0</v>
       </c>
       <c r="I56" s="3"/>
       <c r="J56" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2675,12 +2597,12 @@
       <c r="F57" s="10"/>
       <c r="G57" s="10"/>
       <c r="H57" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C57:G57)</f>
         <v>0</v>
       </c>
       <c r="I57" s="3"/>
       <c r="J57" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2696,12 +2618,12 @@
       <c r="F58" s="10"/>
       <c r="G58" s="10"/>
       <c r="H58" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C58:G58)</f>
         <v>0</v>
       </c>
       <c r="I58" s="3"/>
       <c r="J58" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2717,12 +2639,12 @@
       <c r="F59" s="9"/>
       <c r="G59" s="9"/>
       <c r="H59" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C59:G59)</f>
         <v>0</v>
       </c>
       <c r="I59" s="3"/>
       <c r="J59" s="12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2738,12 +2660,12 @@
       <c r="F60" s="10"/>
       <c r="G60" s="10"/>
       <c r="H60" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C60:G60)</f>
         <v>0</v>
       </c>
       <c r="I60" s="3"/>
       <c r="J60" s="12" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2759,12 +2681,12 @@
       <c r="F61" s="9"/>
       <c r="G61" s="9"/>
       <c r="H61" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C61:G61)</f>
         <v>0</v>
       </c>
       <c r="I61" s="3"/>
       <c r="J61" s="12" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="62" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2780,12 +2702,12 @@
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
       <c r="H62" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C62:G62)</f>
         <v>0</v>
       </c>
       <c r="I62" s="3"/>
       <c r="J62" s="12" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="63" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2801,12 +2723,12 @@
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
       <c r="H63" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C63:G63)</f>
         <v>0</v>
       </c>
       <c r="I63" s="3"/>
       <c r="J63" s="12" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="64" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2822,12 +2744,12 @@
       <c r="F64" s="9"/>
       <c r="G64" s="9"/>
       <c r="H64" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C64:G64)</f>
         <v>0</v>
       </c>
       <c r="I64" s="3"/>
       <c r="J64" s="12" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2843,12 +2765,12 @@
       <c r="F65" s="10"/>
       <c r="G65" s="10"/>
       <c r="H65" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C65:G65)</f>
         <v>0</v>
       </c>
       <c r="I65" s="3"/>
       <c r="J65" s="12" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2864,12 +2786,12 @@
       <c r="F66" s="10"/>
       <c r="G66" s="10"/>
       <c r="H66" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C66:G66)</f>
         <v>0</v>
       </c>
       <c r="I66" s="3"/>
       <c r="J66" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="67" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2885,12 +2807,12 @@
       <c r="F67" s="9"/>
       <c r="G67" s="9"/>
       <c r="H67" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C67:G67)</f>
         <v>0</v>
       </c>
       <c r="I67" s="3"/>
       <c r="J67" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="68" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2906,12 +2828,12 @@
       <c r="F68" s="10"/>
       <c r="G68" s="10"/>
       <c r="H68" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C68:G68)</f>
         <v>0</v>
       </c>
       <c r="I68" s="3"/>
       <c r="J68" s="12" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2927,12 +2849,12 @@
       <c r="F69" s="10"/>
       <c r="G69" s="10"/>
       <c r="H69" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C69:G69)</f>
         <v>0</v>
       </c>
       <c r="I69" s="3"/>
       <c r="J69" s="12" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="70" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2948,12 +2870,12 @@
       <c r="F70" s="9"/>
       <c r="G70" s="9"/>
       <c r="H70" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C70:G70)</f>
         <v>0</v>
       </c>
       <c r="I70" s="3"/>
       <c r="J70" s="12" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2969,12 +2891,12 @@
       <c r="F71" s="10"/>
       <c r="G71" s="10"/>
       <c r="H71" s="8">
-        <f t="shared" si="1"/>
+        <f>SUM(C71:G71)</f>
         <v>0</v>
       </c>
       <c r="I71" s="3"/>
       <c r="J71" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="72" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2990,12 +2912,12 @@
       <c r="F72" s="10"/>
       <c r="G72" s="10"/>
       <c r="H72" s="8">
-        <f t="shared" ref="H72:H106" si="2">SUM(C72:G72)</f>
+        <f>SUM(C72:G72)</f>
         <v>0</v>
       </c>
       <c r="I72" s="3"/>
       <c r="J72" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3011,12 +2933,12 @@
       <c r="F73" s="10"/>
       <c r="G73" s="10"/>
       <c r="H73" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C73:G73)</f>
         <v>0</v>
       </c>
       <c r="I73" s="3"/>
       <c r="J73" s="12" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="74" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3032,11 +2954,11 @@
       <c r="F74" s="10"/>
       <c r="G74" s="10"/>
       <c r="H74" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C74:G74)</f>
         <v>0</v>
       </c>
       <c r="J74" s="13" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="75" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3052,11 +2974,11 @@
       <c r="F75" s="10"/>
       <c r="G75" s="10"/>
       <c r="H75" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C75:G75)</f>
         <v>0</v>
       </c>
       <c r="J75" s="13" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3072,11 +2994,11 @@
       <c r="F76" s="9"/>
       <c r="G76" s="9"/>
       <c r="H76" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C76:G76)</f>
         <v>0</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="77" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3092,11 +3014,11 @@
       <c r="F77" s="9"/>
       <c r="G77" s="9"/>
       <c r="H77" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C77:G77)</f>
         <v>0</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3112,11 +3034,11 @@
       <c r="F78" s="9"/>
       <c r="G78" s="9"/>
       <c r="H78" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C78:G78)</f>
         <v>0</v>
       </c>
       <c r="J78" s="13" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3132,11 +3054,11 @@
       <c r="F79" s="9"/>
       <c r="G79" s="9"/>
       <c r="H79" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C79:G79)</f>
         <v>0</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="80" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3152,11 +3074,11 @@
       <c r="F80" s="10"/>
       <c r="G80" s="10"/>
       <c r="H80" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C80:G80)</f>
         <v>0</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="81" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3172,11 +3094,11 @@
       <c r="F81" s="10"/>
       <c r="G81" s="10"/>
       <c r="H81" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C81:G81)</f>
         <v>0</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="82" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3192,11 +3114,11 @@
       <c r="F82" s="9"/>
       <c r="G82" s="9"/>
       <c r="H82" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C82:G82)</f>
         <v>0</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3212,11 +3134,11 @@
       <c r="F83" s="10"/>
       <c r="G83" s="10"/>
       <c r="H83" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C83:G83)</f>
         <v>0</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="84" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3232,11 +3154,11 @@
       <c r="F84" s="10"/>
       <c r="G84" s="10"/>
       <c r="H84" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C84:G84)</f>
         <v>0</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="85" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3252,11 +3174,11 @@
       <c r="F85" s="10"/>
       <c r="G85" s="10"/>
       <c r="H85" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C85:G85)</f>
         <v>0</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="86" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3272,11 +3194,11 @@
       <c r="F86" s="10"/>
       <c r="G86" s="10"/>
       <c r="H86" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C86:G86)</f>
         <v>0</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="87" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3292,11 +3214,11 @@
       <c r="F87" s="10"/>
       <c r="G87" s="10"/>
       <c r="H87" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C87:G87)</f>
         <v>0</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="88" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3312,11 +3234,11 @@
       <c r="F88" s="10"/>
       <c r="G88" s="10"/>
       <c r="H88" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C88:G88)</f>
         <v>0</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3332,11 +3254,11 @@
       <c r="F89" s="10"/>
       <c r="G89" s="10"/>
       <c r="H89" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C89:G89)</f>
         <v>0</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="90" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3352,11 +3274,11 @@
       <c r="F90" s="10"/>
       <c r="G90" s="10"/>
       <c r="H90" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C90:G90)</f>
         <v>0</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="91" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3372,11 +3294,11 @@
       <c r="F91" s="10"/>
       <c r="G91" s="10"/>
       <c r="H91" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C91:G91)</f>
         <v>0</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="92" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3392,11 +3314,11 @@
       <c r="F92" s="10"/>
       <c r="G92" s="10"/>
       <c r="H92" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C92:G92)</f>
         <v>0</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="93" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3412,11 +3334,11 @@
       <c r="F93" s="9"/>
       <c r="G93" s="9"/>
       <c r="H93" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C93:G93)</f>
         <v>0</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="94" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3432,11 +3354,11 @@
       <c r="F94" s="10"/>
       <c r="G94" s="10"/>
       <c r="H94" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C94:G94)</f>
         <v>0</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="95" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3452,11 +3374,11 @@
       <c r="F95" s="10"/>
       <c r="G95" s="10"/>
       <c r="H95" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C95:G95)</f>
         <v>0</v>
       </c>
       <c r="J95" s="13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="96" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3472,11 +3394,11 @@
       <c r="F96" s="10"/>
       <c r="G96" s="10"/>
       <c r="H96" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C96:G96)</f>
         <v>0</v>
       </c>
       <c r="J96" s="13" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="97" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3492,11 +3414,11 @@
       <c r="F97" s="10"/>
       <c r="G97" s="10"/>
       <c r="H97" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C97:G97)</f>
         <v>0</v>
       </c>
       <c r="J97" s="13" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3512,11 +3434,11 @@
       <c r="F98" s="10"/>
       <c r="G98" s="10"/>
       <c r="H98" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C98:G98)</f>
         <v>0</v>
       </c>
       <c r="J98" s="13" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="99" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3532,11 +3454,11 @@
       <c r="F99" s="10"/>
       <c r="G99" s="10"/>
       <c r="H99" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C99:G99)</f>
         <v>0</v>
       </c>
       <c r="J99" s="13" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3552,11 +3474,11 @@
       <c r="F100" s="10"/>
       <c r="G100" s="10"/>
       <c r="H100" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C100:G100)</f>
         <v>0</v>
       </c>
       <c r="J100" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3572,11 +3494,11 @@
       <c r="F101" s="10"/>
       <c r="G101" s="10"/>
       <c r="H101" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C101:G101)</f>
         <v>0</v>
       </c>
       <c r="J101" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3592,11 +3514,11 @@
       <c r="F102" s="10"/>
       <c r="G102" s="10"/>
       <c r="H102" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C102:G102)</f>
         <v>0</v>
       </c>
       <c r="J102" s="13" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3612,11 +3534,11 @@
       <c r="F103" s="10"/>
       <c r="G103" s="10"/>
       <c r="H103" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C103:G103)</f>
         <v>0</v>
       </c>
       <c r="J103" s="13" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="104" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3632,11 +3554,11 @@
       <c r="F104" s="10"/>
       <c r="G104" s="10"/>
       <c r="H104" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C104:G104)</f>
         <v>0</v>
       </c>
       <c r="J104" s="13" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="105" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3652,11 +3574,11 @@
       <c r="F105" s="10"/>
       <c r="G105" s="10"/>
       <c r="H105" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C105:G105)</f>
         <v>0</v>
       </c>
       <c r="J105" s="13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3672,11 +3594,11 @@
       <c r="F106" s="10"/>
       <c r="G106" s="10"/>
       <c r="H106" s="8">
-        <f t="shared" si="2"/>
+        <f>SUM(C106:G106)</f>
         <v>0</v>
       </c>
       <c r="J106" s="13" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3692,11 +3614,11 @@
       <c r="F107" s="10"/>
       <c r="G107" s="10"/>
       <c r="H107" s="8">
-        <f t="shared" ref="H107" si="3">SUM(C107:G107)</f>
+        <f>SUM(C107:G107)</f>
         <v>0</v>
       </c>
       <c r="J107" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="108" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3712,11 +3634,11 @@
       <c r="F108" s="10"/>
       <c r="G108" s="10"/>
       <c r="H108" s="8">
-        <f t="shared" ref="H108" si="4">SUM(C108:G108)</f>
+        <f>SUM(C108:G108)</f>
         <v>0</v>
       </c>
       <c r="J108" s="13" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3732,11 +3654,11 @@
       <c r="F109" s="10"/>
       <c r="G109" s="10"/>
       <c r="H109" s="8">
-        <f t="shared" ref="H109" si="5">SUM(C109:G109)</f>
+        <f>SUM(C109:G109)</f>
         <v>0</v>
       </c>
       <c r="J109" s="13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="110" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3752,11 +3674,11 @@
       <c r="F110" s="10"/>
       <c r="G110" s="10"/>
       <c r="H110" s="8">
-        <f t="shared" ref="H110" si="6">SUM(C110:G110)</f>
+        <f>SUM(C110:G110)</f>
         <v>0</v>
       </c>
       <c r="J110" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="111" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3772,11 +3694,11 @@
       <c r="F111" s="10"/>
       <c r="G111" s="10"/>
       <c r="H111" s="8">
-        <f t="shared" ref="H111" si="7">SUM(C111:G111)</f>
+        <f>SUM(C111:G111)</f>
         <v>0</v>
       </c>
       <c r="J111" s="13" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3792,11 +3714,11 @@
       <c r="F112" s="10"/>
       <c r="G112" s="10"/>
       <c r="H112" s="8">
-        <f t="shared" ref="H112" si="8">SUM(C112:G112)</f>
+        <f>SUM(C112:G112)</f>
         <v>0</v>
       </c>
       <c r="J112" s="13" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3812,11 +3734,11 @@
       <c r="F113" s="10"/>
       <c r="G113" s="10"/>
       <c r="H113" s="8">
-        <f t="shared" ref="H113" si="9">SUM(C113:G113)</f>
+        <f>SUM(C113:G113)</f>
         <v>0</v>
       </c>
       <c r="J113" s="13" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="114" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3832,11 +3754,11 @@
       <c r="F114" s="10"/>
       <c r="G114" s="10"/>
       <c r="H114" s="8">
-        <f t="shared" ref="H114" si="10">SUM(C114:G114)</f>
+        <f>SUM(C114:G114)</f>
         <v>0</v>
       </c>
       <c r="J114" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3852,11 +3774,11 @@
       <c r="F115" s="10"/>
       <c r="G115" s="10"/>
       <c r="H115" s="8">
-        <f t="shared" ref="H115" si="11">SUM(C115:G115)</f>
+        <f>SUM(C115:G115)</f>
         <v>0</v>
       </c>
       <c r="J115" s="13" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3872,11 +3794,11 @@
       <c r="F116" s="10"/>
       <c r="G116" s="10"/>
       <c r="H116" s="8">
-        <f t="shared" ref="H116" si="12">SUM(C116:G116)</f>
+        <f>SUM(C116:G116)</f>
         <v>0</v>
       </c>
       <c r="J116" s="13" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="117" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3892,11 +3814,11 @@
       <c r="F117" s="10"/>
       <c r="G117" s="10"/>
       <c r="H117" s="8">
-        <f t="shared" ref="H117" si="13">SUM(C117:G117)</f>
+        <f>SUM(C117:G117)</f>
         <v>0</v>
       </c>
       <c r="J117" s="13" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3912,11 +3834,11 @@
       <c r="F118" s="10"/>
       <c r="G118" s="10"/>
       <c r="H118" s="8">
-        <f t="shared" ref="H118" si="14">SUM(C118:G118)</f>
+        <f>SUM(C118:G118)</f>
         <v>0</v>
       </c>
       <c r="J118" s="13" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3932,11 +3854,11 @@
       <c r="F119" s="10"/>
       <c r="G119" s="10"/>
       <c r="H119" s="8">
-        <f t="shared" ref="H119" si="15">SUM(C119:G119)</f>
+        <f>SUM(C119:G119)</f>
         <v>0</v>
       </c>
       <c r="J119" s="13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3952,11 +3874,11 @@
       <c r="F120" s="10"/>
       <c r="G120" s="10"/>
       <c r="H120" s="8">
-        <f t="shared" ref="H120" si="16">SUM(C120:G120)</f>
+        <f>SUM(C120:G120)</f>
         <v>0</v>
       </c>
       <c r="J120" s="13" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3972,11 +3894,11 @@
       <c r="F121" s="10"/>
       <c r="G121" s="10"/>
       <c r="H121" s="8">
-        <f t="shared" ref="H121" si="17">SUM(C121:G121)</f>
+        <f>SUM(C121:G121)</f>
         <v>0</v>
       </c>
       <c r="J121" s="13" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -3992,11 +3914,11 @@
       <c r="F122" s="10"/>
       <c r="G122" s="10"/>
       <c r="H122" s="8">
-        <f t="shared" ref="H122" si="18">SUM(C122:G122)</f>
+        <f>SUM(C122:G122)</f>
         <v>0</v>
       </c>
       <c r="J122" s="13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4012,11 +3934,11 @@
       <c r="F123" s="10"/>
       <c r="G123" s="10"/>
       <c r="H123" s="8">
-        <f t="shared" ref="H123" si="19">SUM(C123:G123)</f>
+        <f>SUM(C123:G123)</f>
         <v>0</v>
       </c>
       <c r="J123" s="13" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="124" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4032,11 +3954,11 @@
       <c r="F124" s="10"/>
       <c r="G124" s="10"/>
       <c r="H124" s="8">
-        <f t="shared" ref="H124" si="20">SUM(C124:G124)</f>
+        <f>SUM(C124:G124)</f>
         <v>0</v>
       </c>
       <c r="J124" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="125" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4052,11 +3974,11 @@
       <c r="F125" s="10"/>
       <c r="G125" s="10"/>
       <c r="H125" s="8">
-        <f t="shared" ref="H125" si="21">SUM(C125:G125)</f>
+        <f>SUM(C125:G125)</f>
         <v>0</v>
       </c>
       <c r="J125" s="13" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4072,11 +3994,11 @@
       <c r="F126" s="10"/>
       <c r="G126" s="10"/>
       <c r="H126" s="8">
-        <f t="shared" ref="H126" si="22">SUM(C126:G126)</f>
+        <f>SUM(C126:G126)</f>
         <v>0</v>
       </c>
       <c r="J126" s="13" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4092,11 +4014,11 @@
       <c r="F127" s="10"/>
       <c r="G127" s="10"/>
       <c r="H127" s="8">
-        <f t="shared" ref="H127" si="23">SUM(C127:G127)</f>
+        <f>SUM(C127:G127)</f>
         <v>0</v>
       </c>
       <c r="J127" s="13" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="128" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4112,11 +4034,11 @@
       <c r="F128" s="10"/>
       <c r="G128" s="10"/>
       <c r="H128" s="8">
-        <f t="shared" ref="H128" si="24">SUM(C128:G128)</f>
+        <f>SUM(C128:G128)</f>
         <v>0</v>
       </c>
       <c r="J128" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4132,11 +4054,11 @@
       <c r="F129" s="10"/>
       <c r="G129" s="10"/>
       <c r="H129" s="8">
-        <f t="shared" ref="H129" si="25">SUM(C129:G129)</f>
+        <f>SUM(C129:G129)</f>
         <v>0</v>
       </c>
       <c r="J129" s="13" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4152,11 +4074,11 @@
       <c r="F130" s="10"/>
       <c r="G130" s="10"/>
       <c r="H130" s="8">
-        <f t="shared" ref="H130" si="26">SUM(C130:G130)</f>
+        <f>SUM(C130:G130)</f>
         <v>0</v>
       </c>
       <c r="J130" s="13" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4172,11 +4094,11 @@
       <c r="F131" s="10"/>
       <c r="G131" s="10"/>
       <c r="H131" s="8">
-        <f t="shared" ref="H131" si="27">SUM(C131:G131)</f>
+        <f>SUM(C131:G131)</f>
         <v>0</v>
       </c>
       <c r="J131" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4192,11 +4114,11 @@
       <c r="F132" s="10"/>
       <c r="G132" s="10"/>
       <c r="H132" s="8">
-        <f t="shared" ref="H132" si="28">SUM(C132:G132)</f>
+        <f>SUM(C132:G132)</f>
         <v>0</v>
       </c>
       <c r="J132" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4212,11 +4134,11 @@
       <c r="F133" s="10"/>
       <c r="G133" s="10"/>
       <c r="H133" s="8">
-        <f t="shared" ref="H133" si="29">SUM(C133:G133)</f>
+        <f>SUM(C133:G133)</f>
         <v>0</v>
       </c>
       <c r="J133" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4232,11 +4154,11 @@
       <c r="F134" s="10"/>
       <c r="G134" s="10"/>
       <c r="H134" s="8">
-        <f t="shared" ref="H134" si="30">SUM(C134:G134)</f>
+        <f>SUM(C134:G134)</f>
         <v>0</v>
       </c>
       <c r="J134" s="13" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4252,11 +4174,11 @@
       <c r="F135" s="10"/>
       <c r="G135" s="10"/>
       <c r="H135" s="8">
-        <f t="shared" ref="H135" si="31">SUM(C135:G135)</f>
+        <f>SUM(C135:G135)</f>
         <v>0</v>
       </c>
       <c r="J135" s="13" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4272,11 +4194,11 @@
       <c r="F136" s="10"/>
       <c r="G136" s="10"/>
       <c r="H136" s="8">
-        <f t="shared" ref="H136" si="32">SUM(C136:G136)</f>
+        <f>SUM(C136:G136)</f>
         <v>0</v>
       </c>
       <c r="J136" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4292,11 +4214,11 @@
       <c r="F137" s="10"/>
       <c r="G137" s="10"/>
       <c r="H137" s="8">
-        <f t="shared" ref="H137" si="33">SUM(C137:G137)</f>
+        <f>SUM(C137:G137)</f>
         <v>0</v>
       </c>
       <c r="J137" s="13" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4312,11 +4234,11 @@
       <c r="F138" s="10"/>
       <c r="G138" s="10"/>
       <c r="H138" s="8">
-        <f t="shared" ref="H138" si="34">SUM(C138:G138)</f>
+        <f>SUM(C138:G138)</f>
         <v>0</v>
       </c>
       <c r="J138" s="13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4332,11 +4254,11 @@
       <c r="F139" s="10"/>
       <c r="G139" s="10"/>
       <c r="H139" s="8">
-        <f t="shared" ref="H139" si="35">SUM(C139:G139)</f>
+        <f>SUM(C139:G139)</f>
         <v>0</v>
       </c>
       <c r="J139" s="13" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4352,11 +4274,11 @@
       <c r="F140" s="10"/>
       <c r="G140" s="10"/>
       <c r="H140" s="8">
-        <f t="shared" ref="H140" si="36">SUM(C140:G140)</f>
+        <f>SUM(C140:G140)</f>
         <v>0</v>
       </c>
       <c r="J140" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4372,11 +4294,11 @@
       <c r="F141" s="10"/>
       <c r="G141" s="10"/>
       <c r="H141" s="8">
-        <f t="shared" ref="H141" si="37">SUM(C141:G141)</f>
+        <f>SUM(C141:G141)</f>
         <v>0</v>
       </c>
       <c r="J141" s="13" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4392,11 +4314,11 @@
       <c r="F142" s="10"/>
       <c r="G142" s="10"/>
       <c r="H142" s="8">
-        <f t="shared" ref="H142" si="38">SUM(C142:G142)</f>
+        <f>SUM(C142:G142)</f>
         <v>0</v>
       </c>
       <c r="J142" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4412,11 +4334,11 @@
       <c r="F143" s="10"/>
       <c r="G143" s="10"/>
       <c r="H143" s="8">
-        <f t="shared" ref="H143" si="39">SUM(C143:G143)</f>
+        <f>SUM(C143:G143)</f>
         <v>0</v>
       </c>
       <c r="J143" s="13" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4432,11 +4354,11 @@
       <c r="F144" s="10"/>
       <c r="G144" s="10"/>
       <c r="H144" s="8">
-        <f t="shared" ref="H144" si="40">SUM(C144:G144)</f>
+        <f>SUM(C144:G144)</f>
         <v>0</v>
       </c>
       <c r="J144" s="13" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4452,11 +4374,11 @@
       <c r="F145" s="10"/>
       <c r="G145" s="10"/>
       <c r="H145" s="8">
-        <f t="shared" ref="H145" si="41">SUM(C145:G145)</f>
+        <f>SUM(C145:G145)</f>
         <v>0</v>
       </c>
       <c r="J145" s="13" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4472,11 +4394,11 @@
       <c r="F146" s="10"/>
       <c r="G146" s="10"/>
       <c r="H146" s="8">
-        <f t="shared" ref="H146" si="42">SUM(C146:G146)</f>
+        <f>SUM(C146:G146)</f>
         <v>0</v>
       </c>
       <c r="J146" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4492,11 +4414,11 @@
       <c r="F147" s="10"/>
       <c r="G147" s="10"/>
       <c r="H147" s="8">
-        <f t="shared" ref="H147" si="43">SUM(C147:G147)</f>
+        <f>SUM(C147:G147)</f>
         <v>0</v>
       </c>
       <c r="J147" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4512,11 +4434,11 @@
       <c r="F148" s="10"/>
       <c r="G148" s="10"/>
       <c r="H148" s="8">
-        <f t="shared" ref="H148:H211" si="44">SUM(C148:G148)</f>
+        <f>SUM(C148:G148)</f>
         <v>0</v>
       </c>
       <c r="J148" s="13" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4532,11 +4454,11 @@
       <c r="F149" s="10"/>
       <c r="G149" s="10"/>
       <c r="H149" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C149:G149)</f>
         <v>0</v>
       </c>
       <c r="J149" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4552,11 +4474,11 @@
       <c r="F150" s="10"/>
       <c r="G150" s="10"/>
       <c r="H150" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C150:G150)</f>
         <v>0</v>
       </c>
       <c r="J150" s="13" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4572,11 +4494,11 @@
       <c r="F151" s="10"/>
       <c r="G151" s="10"/>
       <c r="H151" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C151:G151)</f>
         <v>0</v>
       </c>
       <c r="J151" s="13" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4592,11 +4514,11 @@
       <c r="F152" s="10"/>
       <c r="G152" s="10"/>
       <c r="H152" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C152:G152)</f>
         <v>0</v>
       </c>
       <c r="J152" s="13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4612,11 +4534,11 @@
       <c r="F153" s="10"/>
       <c r="G153" s="10"/>
       <c r="H153" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C153:G153)</f>
         <v>0</v>
       </c>
       <c r="J153" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4632,11 +4554,11 @@
       <c r="F154" s="10"/>
       <c r="G154" s="10"/>
       <c r="H154" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C154:G154)</f>
         <v>0</v>
       </c>
       <c r="J154" s="13" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4652,11 +4574,11 @@
       <c r="F155" s="10"/>
       <c r="G155" s="10"/>
       <c r="H155" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C155:G155)</f>
         <v>0</v>
       </c>
       <c r="J155" s="13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4672,11 +4594,11 @@
       <c r="F156" s="10"/>
       <c r="G156" s="10"/>
       <c r="H156" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C156:G156)</f>
         <v>0</v>
       </c>
       <c r="J156" s="13" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4692,11 +4614,11 @@
       <c r="F157" s="10"/>
       <c r="G157" s="10"/>
       <c r="H157" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C157:G157)</f>
         <v>0</v>
       </c>
       <c r="J157" s="13" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4712,11 +4634,11 @@
       <c r="F158" s="10"/>
       <c r="G158" s="10"/>
       <c r="H158" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C158:G158)</f>
         <v>0</v>
       </c>
       <c r="J158" s="13" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="159" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4732,11 +4654,11 @@
       <c r="F159" s="10"/>
       <c r="G159" s="10"/>
       <c r="H159" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C159:G159)</f>
         <v>0</v>
       </c>
       <c r="J159" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="160" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4752,11 +4674,11 @@
       <c r="F160" s="10"/>
       <c r="G160" s="10"/>
       <c r="H160" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C160:G160)</f>
         <v>0</v>
       </c>
       <c r="J160" s="13" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4772,11 +4694,11 @@
       <c r="F161" s="10"/>
       <c r="G161" s="10"/>
       <c r="H161" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C161:G161)</f>
         <v>0</v>
       </c>
       <c r="J161" s="13" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4792,11 +4714,11 @@
       <c r="F162" s="10"/>
       <c r="G162" s="10"/>
       <c r="H162" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C162:G162)</f>
         <v>0</v>
       </c>
       <c r="J162" s="13" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="163" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4812,11 +4734,11 @@
       <c r="F163" s="10"/>
       <c r="G163" s="10"/>
       <c r="H163" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C163:G163)</f>
         <v>0</v>
       </c>
       <c r="J163" s="13" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="164" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4832,11 +4754,11 @@
       <c r="F164" s="10"/>
       <c r="G164" s="10"/>
       <c r="H164" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C164:G164)</f>
         <v>0</v>
       </c>
       <c r="J164" s="13" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="165" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4852,11 +4774,11 @@
       <c r="F165" s="10"/>
       <c r="G165" s="10"/>
       <c r="H165" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C165:G165)</f>
         <v>0</v>
       </c>
       <c r="J165" s="13" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="166" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4872,11 +4794,11 @@
       <c r="F166" s="10"/>
       <c r="G166" s="10"/>
       <c r="H166" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C166:G166)</f>
         <v>0</v>
       </c>
       <c r="J166" s="13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="167" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4892,11 +4814,11 @@
       <c r="F167" s="10"/>
       <c r="G167" s="10"/>
       <c r="H167" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C167:G167)</f>
         <v>0</v>
       </c>
       <c r="J167" s="13" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4912,11 +4834,11 @@
       <c r="F168" s="10"/>
       <c r="G168" s="10"/>
       <c r="H168" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C168:G168)</f>
         <v>0</v>
       </c>
       <c r="J168" s="13" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="169" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4932,11 +4854,11 @@
       <c r="F169" s="10"/>
       <c r="G169" s="10"/>
       <c r="H169" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C169:G169)</f>
         <v>0</v>
       </c>
       <c r="J169" s="13" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="170" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4952,11 +4874,11 @@
       <c r="F170" s="10"/>
       <c r="G170" s="10"/>
       <c r="H170" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C170:G170)</f>
         <v>0</v>
       </c>
       <c r="J170" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="171" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4972,11 +4894,11 @@
       <c r="F171" s="10"/>
       <c r="G171" s="10"/>
       <c r="H171" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C171:G171)</f>
         <v>0</v>
       </c>
       <c r="J171" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="172" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -4992,11 +4914,11 @@
       <c r="F172" s="10"/>
       <c r="G172" s="10"/>
       <c r="H172" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C172:G172)</f>
         <v>0</v>
       </c>
       <c r="J172" s="13" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="173" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5012,11 +4934,11 @@
       <c r="F173" s="10"/>
       <c r="G173" s="10"/>
       <c r="H173" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C173:G173)</f>
         <v>0</v>
       </c>
       <c r="J173" s="13" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5032,11 +4954,11 @@
       <c r="F174" s="10"/>
       <c r="G174" s="10"/>
       <c r="H174" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C174:G174)</f>
         <v>0</v>
       </c>
       <c r="J174" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5052,11 +4974,11 @@
       <c r="F175" s="10"/>
       <c r="G175" s="10"/>
       <c r="H175" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C175:G175)</f>
         <v>0</v>
       </c>
       <c r="J175" s="13" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5072,11 +4994,11 @@
       <c r="F176" s="10"/>
       <c r="G176" s="10"/>
       <c r="H176" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C176:G176)</f>
         <v>0</v>
       </c>
       <c r="J176" s="13" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="177" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5092,11 +5014,11 @@
       <c r="F177" s="10"/>
       <c r="G177" s="10"/>
       <c r="H177" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C177:G177)</f>
         <v>0</v>
       </c>
       <c r="J177" s="13" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="178" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5112,11 +5034,11 @@
       <c r="F178" s="10"/>
       <c r="G178" s="10"/>
       <c r="H178" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C178:G178)</f>
         <v>0</v>
       </c>
       <c r="J178" s="13" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="179" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5132,11 +5054,11 @@
       <c r="F179" s="10"/>
       <c r="G179" s="10"/>
       <c r="H179" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C179:G179)</f>
         <v>0</v>
       </c>
       <c r="J179" s="13" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="180" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5152,11 +5074,11 @@
       <c r="F180" s="10"/>
       <c r="G180" s="10"/>
       <c r="H180" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C180:G180)</f>
         <v>0</v>
       </c>
       <c r="J180" s="13" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5172,11 +5094,11 @@
       <c r="F181" s="10"/>
       <c r="G181" s="10"/>
       <c r="H181" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C181:G181)</f>
         <v>0</v>
       </c>
       <c r="J181" s="13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5192,11 +5114,11 @@
       <c r="F182" s="10"/>
       <c r="G182" s="10"/>
       <c r="H182" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C182:G182)</f>
         <v>0</v>
       </c>
       <c r="J182" s="13" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="183" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5212,11 +5134,11 @@
       <c r="F183" s="10"/>
       <c r="G183" s="10"/>
       <c r="H183" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C183:G183)</f>
         <v>0</v>
       </c>
       <c r="J183" s="13" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="184" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5232,11 +5154,11 @@
       <c r="F184" s="10"/>
       <c r="G184" s="10"/>
       <c r="H184" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C184:G184)</f>
         <v>0</v>
       </c>
       <c r="J184" s="13" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5252,11 +5174,11 @@
       <c r="F185" s="10"/>
       <c r="G185" s="10"/>
       <c r="H185" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C185:G185)</f>
         <v>0</v>
       </c>
       <c r="J185" s="13" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="186" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5272,11 +5194,11 @@
       <c r="F186" s="10"/>
       <c r="G186" s="10"/>
       <c r="H186" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C186:G186)</f>
         <v>0</v>
       </c>
       <c r="J186" s="13" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="187" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5292,11 +5214,11 @@
       <c r="F187" s="10"/>
       <c r="G187" s="10"/>
       <c r="H187" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C187:G187)</f>
         <v>0</v>
       </c>
       <c r="J187" s="13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5312,11 +5234,11 @@
       <c r="F188" s="10"/>
       <c r="G188" s="10"/>
       <c r="H188" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C188:G188)</f>
         <v>0</v>
       </c>
       <c r="J188" s="13" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="189" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5332,11 +5254,11 @@
       <c r="F189" s="10"/>
       <c r="G189" s="10"/>
       <c r="H189" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C189:G189)</f>
         <v>0</v>
       </c>
       <c r="J189" s="13" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="190" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5352,11 +5274,11 @@
       <c r="F190" s="10"/>
       <c r="G190" s="10"/>
       <c r="H190" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C190:G190)</f>
         <v>0</v>
       </c>
       <c r="J190" s="13" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="191" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5372,11 +5294,11 @@
       <c r="F191" s="10"/>
       <c r="G191" s="10"/>
       <c r="H191" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C191:G191)</f>
         <v>0</v>
       </c>
       <c r="J191" s="13" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="192" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5392,11 +5314,11 @@
       <c r="F192" s="10"/>
       <c r="G192" s="10"/>
       <c r="H192" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C192:G192)</f>
         <v>0</v>
       </c>
       <c r="J192" s="13" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="193" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5412,11 +5334,11 @@
       <c r="F193" s="10"/>
       <c r="G193" s="10"/>
       <c r="H193" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C193:G193)</f>
         <v>0</v>
       </c>
       <c r="J193" s="13" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="194" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5432,11 +5354,11 @@
       <c r="F194" s="10"/>
       <c r="G194" s="10"/>
       <c r="H194" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C194:G194)</f>
         <v>0</v>
       </c>
       <c r="J194" s="13" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="195" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5452,11 +5374,11 @@
       <c r="F195" s="10"/>
       <c r="G195" s="10"/>
       <c r="H195" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C195:G195)</f>
         <v>0</v>
       </c>
       <c r="J195" s="13" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="196" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5472,11 +5394,11 @@
       <c r="F196" s="10"/>
       <c r="G196" s="10"/>
       <c r="H196" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C196:G196)</f>
         <v>0</v>
       </c>
       <c r="J196" s="13" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="197" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5492,11 +5414,11 @@
       <c r="F197" s="10"/>
       <c r="G197" s="10"/>
       <c r="H197" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C197:G197)</f>
         <v>0</v>
       </c>
       <c r="J197" s="13" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="198" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5512,11 +5434,11 @@
       <c r="F198" s="10"/>
       <c r="G198" s="10"/>
       <c r="H198" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C198:G198)</f>
         <v>0</v>
       </c>
       <c r="J198" s="13" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="199" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5532,11 +5454,11 @@
       <c r="F199" s="10"/>
       <c r="G199" s="10"/>
       <c r="H199" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C199:G199)</f>
         <v>0</v>
       </c>
       <c r="J199" s="13" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5552,11 +5474,11 @@
       <c r="F200" s="10"/>
       <c r="G200" s="10"/>
       <c r="H200" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C200:G200)</f>
         <v>0</v>
       </c>
       <c r="J200" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="201" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5572,11 +5494,11 @@
       <c r="F201" s="10"/>
       <c r="G201" s="10"/>
       <c r="H201" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C201:G201)</f>
         <v>0</v>
       </c>
       <c r="J201" s="13" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5584,7 +5506,7 @@
         <v>17</v>
       </c>
       <c r="B202" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C202" s="10"/>
       <c r="D202" s="10"/>
@@ -5592,11 +5514,11 @@
       <c r="F202" s="10"/>
       <c r="G202" s="10"/>
       <c r="H202" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C202:G202)</f>
         <v>0</v>
       </c>
       <c r="J202" s="13" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="203" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -5604,7 +5526,7 @@
         <v>17</v>
       </c>
       <c r="B203" s="5" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="C203" s="10"/>
       <c r="D203" s="10"/>
@@ -5612,529 +5534,29 @@
       <c r="F203" s="10"/>
       <c r="G203" s="10"/>
       <c r="H203" s="8">
-        <f t="shared" si="44"/>
+        <f>SUM(C203:G203)</f>
         <v>0</v>
       </c>
       <c r="J203" s="13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="204" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A204" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B204" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C204" s="10"/>
-      <c r="D204" s="10"/>
-      <c r="E204" s="10"/>
-      <c r="F204" s="10"/>
-      <c r="G204" s="10"/>
-      <c r="H204" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J204" s="13" t="s">
-        <v>219</v>
-      </c>
+      <c r="H204" s="8"/>
+      <c r="J204" s="13"/>
     </row>
     <row r="205" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A205" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B205" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C205" s="10"/>
-      <c r="D205" s="10"/>
-      <c r="E205" s="10"/>
-      <c r="F205" s="10"/>
-      <c r="G205" s="10"/>
-      <c r="H205" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J205" s="13" t="s">
-        <v>220</v>
-      </c>
+      <c r="H205" s="8"/>
+      <c r="J205" s="13"/>
     </row>
     <row r="206" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A206" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B206" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C206" s="10"/>
-      <c r="D206" s="10"/>
-      <c r="E206" s="10"/>
-      <c r="F206" s="10"/>
-      <c r="G206" s="10"/>
-      <c r="H206" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J206" s="13" t="s">
-        <v>221</v>
-      </c>
+      <c r="J206" s="13"/>
     </row>
     <row r="207" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B207" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C207" s="10"/>
-      <c r="D207" s="10"/>
-      <c r="E207" s="10"/>
-      <c r="F207" s="10"/>
-      <c r="G207" s="10"/>
-      <c r="H207" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J207" s="13" t="s">
-        <v>222</v>
-      </c>
+      <c r="J207" s="13"/>
     </row>
     <row r="208" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A208" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B208" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C208" s="10"/>
-      <c r="D208" s="10"/>
-      <c r="E208" s="10"/>
-      <c r="F208" s="10"/>
-      <c r="G208" s="10"/>
-      <c r="H208" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J208" s="13" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="209" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A209" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B209" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C209" s="10"/>
-      <c r="D209" s="10"/>
-      <c r="E209" s="10"/>
-      <c r="F209" s="10"/>
-      <c r="G209" s="10"/>
-      <c r="H209" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J209" s="13" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="210" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B210" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C210" s="10"/>
-      <c r="D210" s="10"/>
-      <c r="E210" s="10"/>
-      <c r="F210" s="10"/>
-      <c r="G210" s="10"/>
-      <c r="H210" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J210" s="13" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="211" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A211" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B211" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C211" s="10"/>
-      <c r="D211" s="10"/>
-      <c r="E211" s="10"/>
-      <c r="F211" s="10"/>
-      <c r="G211" s="10"/>
-      <c r="H211" s="8">
-        <f t="shared" si="44"/>
-        <v>0</v>
-      </c>
-      <c r="J211" s="13" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="212" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A212" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B212" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C212" s="10"/>
-      <c r="D212" s="10"/>
-      <c r="E212" s="10"/>
-      <c r="F212" s="10"/>
-      <c r="G212" s="10"/>
-      <c r="H212" s="8">
-        <f t="shared" ref="H212:H228" si="45">SUM(C212:G212)</f>
-        <v>0</v>
-      </c>
-      <c r="J212" s="13" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="213" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A213" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B213" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C213" s="10"/>
-      <c r="D213" s="10"/>
-      <c r="E213" s="10"/>
-      <c r="F213" s="10"/>
-      <c r="G213" s="10"/>
-      <c r="H213" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J213" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="214" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A214" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B214" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C214" s="10"/>
-      <c r="D214" s="10"/>
-      <c r="E214" s="10"/>
-      <c r="F214" s="10"/>
-      <c r="G214" s="10"/>
-      <c r="H214" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J214" s="13" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="215" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A215" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B215" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C215" s="10"/>
-      <c r="D215" s="10"/>
-      <c r="E215" s="10"/>
-      <c r="F215" s="10"/>
-      <c r="G215" s="10"/>
-      <c r="H215" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J215" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="216" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A216" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B216" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C216" s="10"/>
-      <c r="D216" s="10"/>
-      <c r="E216" s="10"/>
-      <c r="F216" s="10"/>
-      <c r="G216" s="10"/>
-      <c r="H216" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J216" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="217" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A217" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B217" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C217" s="10"/>
-      <c r="D217" s="10"/>
-      <c r="E217" s="10"/>
-      <c r="F217" s="10"/>
-      <c r="G217" s="10"/>
-      <c r="H217" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J217" s="13" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="218" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A218" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B218" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C218" s="10"/>
-      <c r="D218" s="10"/>
-      <c r="E218" s="10"/>
-      <c r="F218" s="10"/>
-      <c r="G218" s="10"/>
-      <c r="H218" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J218" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="219" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A219" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B219" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C219" s="10"/>
-      <c r="D219" s="10"/>
-      <c r="E219" s="10"/>
-      <c r="F219" s="10"/>
-      <c r="G219" s="10"/>
-      <c r="H219" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J219" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="220" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A220" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B220" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C220" s="10"/>
-      <c r="D220" s="10"/>
-      <c r="E220" s="10"/>
-      <c r="F220" s="10"/>
-      <c r="G220" s="10"/>
-      <c r="H220" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J220" s="13" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="221" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B221" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C221" s="10"/>
-      <c r="D221" s="10"/>
-      <c r="E221" s="10"/>
-      <c r="F221" s="10"/>
-      <c r="G221" s="10"/>
-      <c r="H221" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J221" s="13" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="222" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A222" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B222" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C222" s="10"/>
-      <c r="D222" s="10"/>
-      <c r="E222" s="10"/>
-      <c r="F222" s="10"/>
-      <c r="G222" s="10"/>
-      <c r="H222" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J222" s="13" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="223" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A223" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B223" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C223" s="10"/>
-      <c r="D223" s="10"/>
-      <c r="E223" s="10"/>
-      <c r="F223" s="10"/>
-      <c r="G223" s="10"/>
-      <c r="H223" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J223" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="224" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A224" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B224" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C224" s="10"/>
-      <c r="D224" s="10"/>
-      <c r="E224" s="10"/>
-      <c r="F224" s="10"/>
-      <c r="G224" s="10"/>
-      <c r="H224" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J224" s="13" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="225" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A225" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B225" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C225" s="10"/>
-      <c r="D225" s="10"/>
-      <c r="E225" s="10"/>
-      <c r="F225" s="10"/>
-      <c r="G225" s="10"/>
-      <c r="H225" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J225" s="13" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="226" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A226" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B226" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C226" s="10"/>
-      <c r="D226" s="10"/>
-      <c r="E226" s="10"/>
-      <c r="F226" s="10"/>
-      <c r="G226" s="10"/>
-      <c r="H226" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J226" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="227" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A227" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B227" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C227" s="10"/>
-      <c r="D227" s="10"/>
-      <c r="E227" s="10"/>
-      <c r="F227" s="10"/>
-      <c r="G227" s="10"/>
-      <c r="H227" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J227" s="13" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="228" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A228" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B228" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C228" s="10"/>
-      <c r="D228" s="10"/>
-      <c r="E228" s="10"/>
-      <c r="F228" s="10"/>
-      <c r="G228" s="10"/>
-      <c r="H228" s="8">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="J228" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="229" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H229" s="8"/>
-      <c r="J229" s="13"/>
-    </row>
-    <row r="230" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="H230" s="8"/>
-      <c r="J230" s="13"/>
-    </row>
-    <row r="231" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J231" s="13"/>
-    </row>
-    <row r="232" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J232" s="13"/>
-    </row>
-    <row r="233" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="J233" s="13"/>
+      <c r="J208" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="10">
